--- a/Nightmare_tests/CutoffSpeedup_nightmare.xlsx
+++ b/Nightmare_tests/CutoffSpeedup_nightmare.xlsx
@@ -5,28 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissagithinji/Desktop/UCT/CompSci 2002S/Assignment1-Parallel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissagithinji/Desktop/UCT/CompSci 2002S/GTHMEL001-PCPA1/myrepo/Nightmare_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E672AC9E-7E3E-064A-9D44-393C0E7E4826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109A6BF-EF9C-0B42-A4DC-0F9FEDB4D88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="500" windowWidth="23160" windowHeight="16480" xr2:uid="{92E0B9A1-8182-7F49-8C40-A39BDCA32F05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$2:$E$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$2:$G$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$J$2:$J$26</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -959,7 +947,9 @@
           <c:order val="4"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1723,7 +1713,7 @@
                   <c:v>1.95588235294117</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3859649122807003</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.3735849056603699</c:v>
@@ -3080,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0794D40-F95E-CF45-8F3B-A0145FF65313}">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3592,7 +3582,7 @@
         <v>3.8141592920353902</v>
       </c>
       <c r="I17" s="1">
-        <v>4.3859649122807003</v>
+        <v>2.5</v>
       </c>
       <c r="J17" s="1">
         <v>2.1721854304635699</v>
